--- a/biology/Virologie/Orthopneumovirus/Orthopneumovirus.xlsx
+++ b/biology/Virologie/Orthopneumovirus/Orthopneumovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orthopneumovirus est un genre de virus de la famille des Pneumoviridae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orthopneumovirus est un genre de virus de la famille des Pneumoviridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon l’ICTV[2] et NCBI  (6 août 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon l’ICTV et NCBI  (6 août 2018) :
 Bovine orthopneumovirus ou Virus respiratoire syncytial bovin (VRSB) (Bovine respiratory syncytial virus)
 Human orthopneumovirus ou Virus respiratoire syncytial (VRS) (Human respiratory syncytial virus)
 Murine orthopneumovirus ou Virus de la pneumonie murine (Murine pneumonia virus)</t>
